--- a/Data Exchange Schema - Scenarios.xlsx
+++ b/Data Exchange Schema - Scenarios.xlsx
@@ -606,7 +606,7 @@
         <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FF8C8C8C"/>
       </bottom>
     </border>
     <border>
@@ -945,7 +945,7 @@
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="16" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="17" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -2614,8 +2614,8 @@
       <c r="D14" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="39" t="s">
-        <v>37</v>
+      <c r="E14" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="F14" s="40" t="s">
         <v>47</v>
@@ -2675,8 +2675,8 @@
       <c r="D16" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="39" t="s">
-        <v>37</v>
+      <c r="E16" s="37" t="s">
+        <v>38</v>
       </c>
       <c r="F16" s="40" t="s">
         <v>47</v>
@@ -5311,8 +5311,8 @@
       <c r="K12" s="92"/>
     </row>
     <row r="13">
-      <c r="B13" s="19">
-        <v>45691.0</v>
+      <c r="B13" s="7">
+        <v>45714.0</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>59</v>
@@ -5343,8 +5343,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="78">
-        <v>45693.0</v>
+      <c r="B14" s="36">
+        <v>45714.0</v>
       </c>
       <c r="C14" s="89" t="s">
         <v>59</v>
@@ -5372,8 +5372,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="19">
-        <v>45693.0</v>
+      <c r="B15" s="7">
+        <v>45714.0</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>59</v>
@@ -5401,8 +5401,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="78">
-        <v>45693.0</v>
+      <c r="B16" s="36">
+        <v>45714.0</v>
       </c>
       <c r="C16" s="89" t="s">
         <v>59</v>
@@ -5430,8 +5430,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="19">
-        <v>45721.0</v>
+      <c r="B17" s="7">
+        <v>45719.0</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>40</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="18">
       <c r="B18" s="96">
-        <v>45751.0</v>
+        <v>45733.0</v>
       </c>
       <c r="C18" s="97" t="s">
         <v>40</v>
